--- a/Question_Sets/Software skills/Zoho CRM.xlsx
+++ b/Question_Sets/Software skills/Zoho CRM.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "As a Zoho CRM specialist, you have a complex sales team structure with multiple roles. You've been tasked with ensuring that sales representatives in the same role can view and edit one another's leads to foster collaboration. However, you want to limit access to leads owned by sales representatives in different roles.What step should you take to achieve this?", 'ques_type': 2, 'options': ['Create a sharing rule for cross-role lead access.', 'Create custom profiles for each role to control access.', 'Use permission sets to grant additional access to leads.', 'Configure record ownership to allow cross-role access.'], 'score': 'Create a sharing rule for cross-role lead access.'}, {'title': 'You are a sales manager tasked with managing your team\'s sales pipeline in Zoho CRM. You notice that several leads have progressed through the initial stages but have been stuck in the "Negotiation" stage for a while. You want to move these leads forward in the pipeline.What should you do?', 'ques_type': 2, 'options': ['Reassign the leads to a different sales representative for a fresh perspective.', 'Move the leads back to the "Qualification" stage for further assessment.', 'Review the communication history with these leads and identify any unresolved objections.', 'Offer a customized incentive or discount to encourage lead progression.'], 'score': 'Review the communication history with these leads and identify any unresolved objections.'}, {'title': 'You are configuring a workflow in Zoho CRM to automate lead follow-up. You want the workflow to trigger when a lead\'s status changes to “Hot."How can you define this trigger?', 'ques_type': 2, 'options': ['Create a custom function to monitor lead status changes.', 'Configure a time-based trigger to run every hour.', 'Schedule periodic reports to identify "Hot" leads.', 'Define a workflow rule with a "Hot" status trigger.'], 'score': 'Define a workflow rule with a "Hot" status trigger.'}, {'title': "As a Zoho CRM specialist, you have been tasked with enhancing the data visualization in your company's analytics dashboard. The management team wants to implement drill-down charts to allow users to explore detailed insights within a chart.Which action should you take?", 'ques_type': 2, 'options': ['Configure a master chart with summarized data.', 'Add hyperlinks to external data sources.', 'Implement grouping and aggregation in the chart.', 'Create a hierarchy of chart elements with clickable elements.'], 'score': 'Create a hierarchy of chart elements with clickable elements.'}]</t>
+    <t>questions = [
+    {
+        "title": "As a Zoho CRM specialist, you have a complex sales team structure with multiple roles. You've been tasked with ensuring that sales representatives in the same role can view and edit one another's leads to foster collaboration. However, you want to limit access to leads owned by sales representatives in different roles.What step should you take to achieve this?",
+        "ques_type": 2,
+        "options": [
+            "Create a sharing rule for cross-role lead access.",
+            "Create custom profiles for each role to control access.",
+            "Use permission sets to grant additional access to leads.",
+            "Configure record ownership to allow cross-role access."
+        ],
+        "score": "Create a sharing rule for cross-role lead access."
+    },
+    {
+        "title": "You are a sales manager tasked with managing your team's sales pipeline in Zoho CRM. You notice that several leads have progressed through the initial stages but have been stuck in the \"Negotiation\" stage for a while. You want to move these leads forward in the pipeline.What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Reassign the leads to a different sales representative for a fresh perspective.",
+            "Move the leads back to the \"Qualification\" stage for further assessment.",
+            "Review the communication history with these leads and identify any unresolved objections.",
+            "Offer a customized incentive or discount to encourage lead progression."
+        ],
+        "score": "Review the communication history with these leads and identify any unresolved objections."
+    },
+    {
+        "title": "You are configuring a workflow in Zoho CRM to automate lead follow-up. You want the workflow to trigger when a lead's status changes to \u201cHot.\"How can you define this trigger?",
+        "ques_type": 2,
+        "options": [
+            "Create a custom function to monitor lead status changes.",
+            "Configure a time-based trigger to run every hour.",
+            "Schedule periodic reports to identify \"Hot\" leads.",
+            "Define a workflow rule with a \"Hot\" status trigger."
+        ],
+        "score": "Define a workflow rule with a \"Hot\" status trigger."
+    },
+    {
+        "title": "As a Zoho CRM specialist, you have been tasked with enhancing the data visualization in your company's analytics dashboard. The management team wants to implement drill-down charts to allow users to explore detailed insights within a chart.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Configure a master chart with summarized data.",
+            "Add hyperlinks to external data sources.",
+            "Implement grouping and aggregation in the chart.",
+            "Create a hierarchy of chart elements with clickable elements."
+        ],
+        "score": "Create a hierarchy of chart elements with clickable elements."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
